--- a/my_project/output_result_data/calc_correlations_result_data/corr_areas_approach_shops_data.xlsx
+++ b/my_project/output_result_data/calc_correlations_result_data/corr_areas_approach_shops_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,139 +491,3403 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Store 1</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>50.4</v>
+        <v>50.415258</v>
       </c>
       <c r="C2" t="n">
-        <v>30.35</v>
+        <v>30.522344</v>
       </c>
       <c r="D2" t="n">
+        <v>2.182984967003582</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>165</v>
+      </c>
+      <c r="G2" t="n">
+        <v>374.1354943038655</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.267487844265851</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50.17100037018368</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20.625</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.76693678798318</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Store 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50.495292</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30.512299</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.636888906983799</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>124</v>
+      </c>
+      <c r="G3" t="n">
+        <v>295.4401416798368</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.382581787740619</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20.17507514430831</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29.54401416798368</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Store 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>50.414301</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30.650869</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.503790683057181</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19</v>
+      </c>
+      <c r="F4" t="n">
+        <v>174</v>
+      </c>
+      <c r="G4" t="n">
+        <v>426.0018146215393</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.448286290928387</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.72124807682166</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.157894736842104</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.42114813797575</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Store 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50.471703</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30.47874</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.376576957056512</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>178</v>
+      </c>
+      <c r="G5" t="n">
+        <v>373.2706681672649</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.097026225658792</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55.53857474474825</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46.65883352090812</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Store 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50.532248</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30.608288</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.340840549812332</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>134</v>
+      </c>
+      <c r="G6" t="n">
+        <v>328.9899425302744</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.455148824852794</v>
+      </c>
+      <c r="I6" t="n">
+        <v>61.11243330291155</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.88888888888889</v>
+      </c>
+      <c r="K6" t="n">
+        <v>36.55443805891938</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Store 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>50.441108</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30.520819</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.15956719323362</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>506</v>
+      </c>
+      <c r="G7" t="n">
+        <v>971.9453740898773</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.920840660256675</v>
+      </c>
+      <c r="I7" t="n">
+        <v>91.28386487901908</v>
+      </c>
+      <c r="J7" t="n">
+        <v>56.22222222222222</v>
+      </c>
+      <c r="K7" t="n">
+        <v>107.9939304544308</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Store 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50.518478</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30.45828</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.405687786672777</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>149</v>
+      </c>
+      <c r="G8" t="n">
+        <v>350.9968118056257</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.355683300708897</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23.31617888878278</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.41666666666667</v>
+      </c>
+      <c r="K8" t="n">
+        <v>29.24973431713548</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Store 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50.49556</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.358346</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.3654879848909</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>39.07709333091777</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.170949629495432</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.049033018207503</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9.769273332729442</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Store 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50.462101</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.481258</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.781108835729466</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>308</v>
+      </c>
+      <c r="G10" t="n">
+        <v>643.5342708232462</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.089396983192358</v>
+      </c>
+      <c r="I10" t="n">
+        <v>43.69869132356197</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20.53333333333333</v>
+      </c>
+      <c r="K10" t="n">
+        <v>42.90228472154975</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Store 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50.445203</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.444036</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.62705846400099</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>253</v>
+      </c>
+      <c r="G11" t="n">
+        <v>544.4324451584469</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.151906897859474</v>
+      </c>
+      <c r="I11" t="n">
+        <v>49.04358452225105</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.88235294117647</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32.02543795049687</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Store 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>50.411143</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.40476</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.182414652434554</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>228.7929692573303</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.287929692573303</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30.64313677998844</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>22.87929692573303</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Store 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>50.40711</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.66618</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.582744965691277</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>123</v>
+      </c>
+      <c r="G13" t="n">
+        <v>288.6648792345596</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.346868936866338</v>
+      </c>
+      <c r="I13" t="n">
+        <v>27.39309080912003</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="K13" t="n">
+        <v>32.07387547050663</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Store 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50.493389</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.576474</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.34966598409663</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>76</v>
+      </c>
+      <c r="G14" t="n">
+        <v>184.2890769188558</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.424856275248102</v>
+      </c>
+      <c r="I14" t="n">
+        <v>42.77316843133559</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>23.03613461485697</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Store 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>50.500799</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.450873</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.351022852584124</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>185</v>
+      </c>
+      <c r="G15" t="n">
+        <v>399.1579717626575</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.157610658176527</v>
+      </c>
+      <c r="I15" t="n">
+        <v>51.76314937262092</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13.21428571428571</v>
+      </c>
+      <c r="K15" t="n">
+        <v>28.51128369733268</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Store 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>50.520226</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.51452</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.754348335711019</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>153</v>
+      </c>
+      <c r="G16" t="n">
+        <v>353.8068374770822</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.312462990046289</v>
+      </c>
+      <c r="I16" t="n">
+        <v>48.09844779794895</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11.76923076923077</v>
+      </c>
+      <c r="K16" t="n">
+        <v>27.21591057516017</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Store 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>50.509914</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.50591</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.565965817446667</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>182</v>
+      </c>
+      <c r="G17" t="n">
+        <v>432.9353910649194</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.378765884972085</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17.92410270114178</v>
+      </c>
+      <c r="J17" t="n">
+        <v>15.16666666666667</v>
+      </c>
+      <c r="K17" t="n">
+        <v>36.07794925540995</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Store 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>50.497957</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.517891</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.294025094095323</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>114</v>
+      </c>
+      <c r="G18" t="n">
+        <v>269.4248548554322</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.363375919784493</v>
+      </c>
+      <c r="I18" t="n">
+        <v>42.90037998403457</v>
+      </c>
+      <c r="J18" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>26.94248548554322</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Store 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>50.505198</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30.512144</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.401745082237063</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>125</v>
+      </c>
+      <c r="G19" t="n">
+        <v>300.2682947973356</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.402146358378685</v>
+      </c>
+      <c r="I19" t="n">
+        <v>43.82407600197941</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15.625</v>
+      </c>
+      <c r="K19" t="n">
+        <v>37.53353684966694</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Store 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>50.462079</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30.494244</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.26150077319828</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12</v>
+      </c>
+      <c r="F20" t="n">
+        <v>290</v>
+      </c>
+      <c r="G20" t="n">
+        <v>582.5501621153483</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.008793662466718</v>
+      </c>
+      <c r="I20" t="n">
+        <v>57.91993469311435</v>
+      </c>
+      <c r="J20" t="n">
+        <v>24.16666666666667</v>
+      </c>
+      <c r="K20" t="n">
+        <v>48.54584684294569</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Store 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>50.431315</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30.383651</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.51067903103221</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>214</v>
+      </c>
+      <c r="G21" t="n">
+        <v>485.4137362459945</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.268288487130816</v>
+      </c>
+      <c r="I21" t="n">
+        <v>33.82506856908752</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11.26315789473684</v>
+      </c>
+      <c r="K21" t="n">
+        <v>25.54809138136813</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Store 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>50.44743</v>
+      </c>
+      <c r="C22" t="n">
+        <v>30.49444</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.50745106090197</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F22" t="n">
+        <v>379</v>
+      </c>
+      <c r="G22" t="n">
+        <v>726.0879608743425</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.91579936906159</v>
+      </c>
+      <c r="I22" t="n">
+        <v>97.49572318175007</v>
+      </c>
+      <c r="J22" t="n">
+        <v>27.07142857142857</v>
+      </c>
+      <c r="K22" t="n">
+        <v>51.86342577673874</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Store 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>50.405393</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30.631846</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.230448921378274</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19</v>
+      </c>
+      <c r="F23" t="n">
+        <v>177</v>
+      </c>
+      <c r="G23" t="n">
+        <v>461.7851591071527</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.608955701170354</v>
+      </c>
+      <c r="I23" t="n">
+        <v>32.7574312704863</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9.315789473684211</v>
+      </c>
+      <c r="K23" t="n">
+        <v>24.30448205827119</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Store 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>50.464371</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30.610285</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.458184435570263</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>128</v>
+      </c>
+      <c r="G24" t="n">
+        <v>301.9160351380687</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.358719024516161</v>
+      </c>
+      <c r="I24" t="n">
+        <v>36.87463065392708</v>
+      </c>
+      <c r="J24" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>30.19160351380686</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Store 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>50.405591</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30.611193</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.608097946325279</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>114</v>
+      </c>
+      <c r="G25" t="n">
+        <v>298.5867054986292</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.619181627180958</v>
+      </c>
+      <c r="I25" t="n">
+        <v>64.32701390988734</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12.66666666666667</v>
+      </c>
+      <c r="K25" t="n">
+        <v>33.1763006109588</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Store 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>50.399276</v>
+      </c>
+      <c r="C26" t="n">
+        <v>30.616704</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.742175043223677</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>138</v>
+      </c>
+      <c r="G26" t="n">
+        <v>359.5880852681105</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.605710762812395</v>
+      </c>
+      <c r="I26" t="n">
+        <v>39.69263605264145</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>35.95880852681105</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Store 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>50.470626</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30.461664</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.014940349792937</v>
+      </c>
+      <c r="E27" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F27" t="n">
+        <v>89</v>
+      </c>
+      <c r="G27" t="n">
+        <v>193.0327369883575</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.168907157172556</v>
+      </c>
+      <c r="I27" t="n">
+        <v>46.40759645910545</v>
+      </c>
+      <c r="J27" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>38.60654739767149</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Store 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>50.414054</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30.636607</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.529943401658669</v>
+      </c>
+      <c r="E28" t="n">
+        <v>17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>166</v>
+      </c>
+      <c r="G28" t="n">
+        <v>434.139498416731</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.61529818323332</v>
+      </c>
+      <c r="I28" t="n">
+        <v>28.41094407672693</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.764705882352942</v>
+      </c>
+      <c r="K28" t="n">
+        <v>25.53761755392535</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Store 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>50.41074</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30.545757</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.308777773664721</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>224</v>
+      </c>
+      <c r="G29" t="n">
+        <v>467.0033992005943</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.084836603574082</v>
+      </c>
+      <c r="I29" t="n">
+        <v>52.83402958668054</v>
+      </c>
+      <c r="J29" t="n">
+        <v>37.33333333333334</v>
+      </c>
+      <c r="K29" t="n">
+        <v>77.83389986676572</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Store 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>50.502558</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30.605179</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.631950826259217</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>132</v>
+      </c>
+      <c r="G30" t="n">
+        <v>316.719540651989</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.399390459484765</v>
+      </c>
+      <c r="I30" t="n">
+        <v>37.53855051919437</v>
+      </c>
+      <c r="J30" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>31.6719540651989</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Store 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>50.513155</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30.623016</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.515078675075923</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>96</v>
+      </c>
+      <c r="G31" t="n">
+        <v>238.024393070243</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.479420761148365</v>
+      </c>
+      <c r="I31" t="n">
+        <v>46.9380765567061</v>
+      </c>
+      <c r="J31" t="n">
+        <v>16</v>
+      </c>
+      <c r="K31" t="n">
+        <v>39.67073217837383</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Store 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50.507233</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30.44086</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.259115844185066</v>
+      </c>
+      <c r="E32" t="n">
+        <v>17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>261</v>
+      </c>
+      <c r="G32" t="n">
+        <v>563.1874115656306</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.15780617458096</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15.52480095243166</v>
+      </c>
+      <c r="J32" t="n">
+        <v>15.35294117647059</v>
+      </c>
+      <c r="K32" t="n">
+        <v>33.12867126856651</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Store 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>50.417252</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30.618417</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.270911639410481</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>83</v>
+      </c>
+      <c r="G33" t="n">
+        <v>221.0899283402962</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.663734076389111</v>
+      </c>
+      <c r="I33" t="n">
+        <v>49.8256656400759</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9.222222222222221</v>
+      </c>
+      <c r="K33" t="n">
+        <v>24.56554759336625</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Store 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>50.505279</v>
+      </c>
+      <c r="C34" t="n">
+        <v>30.453488</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.431685344686012</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="n">
+        <v>207</v>
+      </c>
+      <c r="G34" t="n">
+        <v>449.160977150502</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.169859792997594</v>
+      </c>
+      <c r="I34" t="n">
+        <v>28.36066568891496</v>
+      </c>
+      <c r="J34" t="n">
+        <v>15.92307692307692</v>
+      </c>
+      <c r="K34" t="n">
+        <v>34.55084439619247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Store 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>50.401534</v>
+      </c>
+      <c r="C35" t="n">
+        <v>30.564091</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.498586208817518</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>30</v>
+      </c>
+      <c r="G35" t="n">
+        <v>63.85869726719186</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.128623242239728</v>
+      </c>
+      <c r="I35" t="n">
+        <v>27.65162704298403</v>
+      </c>
+      <c r="J35" t="n">
+        <v>15</v>
+      </c>
+      <c r="K35" t="n">
+        <v>31.92934863359593</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Store 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>50.451393</v>
+      </c>
+      <c r="C36" t="n">
+        <v>30.63235</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.297322714205303</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12</v>
+      </c>
+      <c r="F36" t="n">
+        <v>178</v>
+      </c>
+      <c r="G36" t="n">
+        <v>354.0110195956737</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.988825952784684</v>
+      </c>
+      <c r="I36" t="n">
+        <v>79.95217296821465</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14.83333333333333</v>
+      </c>
+      <c r="K36" t="n">
+        <v>29.50091829963948</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Store 36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>50.492563</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30.599994</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.516667559099043</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13</v>
+      </c>
+      <c r="F37" t="n">
+        <v>164</v>
+      </c>
+      <c r="G37" t="n">
+        <v>359.408679620479</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.191516339149262</v>
+      </c>
+      <c r="I37" t="n">
+        <v>33.9179378103243</v>
+      </c>
+      <c r="J37" t="n">
+        <v>12.61538461538461</v>
+      </c>
+      <c r="K37" t="n">
+        <v>27.64682150926762</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Store 37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>50.373832</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30.446797</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.495821753385906</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>73</v>
+      </c>
+      <c r="G38" t="n">
+        <v>173.9381294316773</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.382714101803798</v>
+      </c>
+      <c r="I38" t="n">
+        <v>29.38211095496671</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10.42857142857143</v>
+      </c>
+      <c r="K38" t="n">
+        <v>24.84830420452532</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Store 38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>50.424666</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30.383076</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.378034322457331</v>
+      </c>
+      <c r="E39" t="n">
+        <v>17</v>
+      </c>
+      <c r="F39" t="n">
+        <v>213</v>
+      </c>
+      <c r="G39" t="n">
+        <v>477.2358555058501</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.240543922562677</v>
+      </c>
+      <c r="I39" t="n">
+        <v>22.17001414021124</v>
+      </c>
+      <c r="J39" t="n">
+        <v>12.52941176470588</v>
+      </c>
+      <c r="K39" t="n">
+        <v>28.07269738269706</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Store 39</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>50.384299</v>
+      </c>
+      <c r="C40" t="n">
+        <v>30.45815</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.573335840066068</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>156</v>
+      </c>
+      <c r="G40" t="n">
+        <v>364.3777836690002</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.335755023519232</v>
+      </c>
+      <c r="I40" t="n">
+        <v>38.56870536894029</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8.210526315789474</v>
+      </c>
+      <c r="K40" t="n">
+        <v>19.17777808784212</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Store 40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>50.4272</v>
+      </c>
+      <c r="C41" t="n">
+        <v>30.530629</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.306210508167761</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>240</v>
+      </c>
+      <c r="G41" t="n">
+        <v>537.6574668530518</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.240239445221049</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24.95267237615401</v>
+      </c>
+      <c r="J41" t="n">
+        <v>40</v>
+      </c>
+      <c r="K41" t="n">
+        <v>89.60957780884196</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Store 41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>50.516616</v>
+      </c>
+      <c r="C42" t="n">
+        <v>30.601924</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.81630759943194</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>159</v>
+      </c>
+      <c r="G42" t="n">
+        <v>384.5995957769079</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.418865382244704</v>
+      </c>
+      <c r="I42" t="n">
+        <v>24.26298335429708</v>
+      </c>
+      <c r="J42" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K42" t="n">
+        <v>38.45995957769079</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Store 42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>50.435939</v>
+      </c>
+      <c r="C43" t="n">
+        <v>30.489985</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.338257230246255</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>203</v>
+      </c>
+      <c r="G43" t="n">
+        <v>413.8625434436296</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.038731741101624</v>
+      </c>
+      <c r="I43" t="n">
+        <v>48.98645153352845</v>
+      </c>
+      <c r="J43" t="n">
+        <v>16.91666666666667</v>
+      </c>
+      <c r="K43" t="n">
+        <v>34.48854528696913</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Store 43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>50.484819</v>
+      </c>
+      <c r="C44" t="n">
+        <v>30.639434</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.430236353411511</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>79</v>
+      </c>
+      <c r="G44" t="n">
+        <v>184.5802731800765</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.336459154178184</v>
+      </c>
+      <c r="I44" t="n">
+        <v>42.44336930754172</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="K44" t="n">
+        <v>23.07253414750957</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Store 44</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>50.460746</v>
+      </c>
+      <c r="C45" t="n">
+        <v>30.642653</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.310693312343361</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>46</v>
+      </c>
+      <c r="G45" t="n">
+        <v>106.4053387310746</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.313159537632056</v>
+      </c>
+      <c r="I45" t="n">
+        <v>14.12685491780428</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>26.60133468276865</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Store 45</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>50.416525</v>
+      </c>
+      <c r="C46" t="n">
+        <v>30.519005</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.367914738793753</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>164</v>
+      </c>
+      <c r="G46" t="n">
+        <v>375.317239810031</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.288519754939213</v>
+      </c>
+      <c r="I46" t="n">
+        <v>61.69682540182696</v>
+      </c>
+      <c r="J46" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>46.91465497625387</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Store 46</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>50.503042</v>
+      </c>
+      <c r="C47" t="n">
+        <v>30.506489</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.370142847051102</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13</v>
+      </c>
+      <c r="F47" t="n">
+        <v>166</v>
+      </c>
+      <c r="G47" t="n">
+        <v>401.4342864564599</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.418278834075059</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8.07994375662248</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12.76923076923077</v>
+      </c>
+      <c r="K47" t="n">
+        <v>30.87956049665076</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Store 47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>50.505331</v>
+      </c>
+      <c r="C48" t="n">
+        <v>30.491009</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.363235804483694</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>125</v>
+      </c>
+      <c r="G48" t="n">
+        <v>297.6006166798478</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.380804933438783</v>
+      </c>
+      <c r="I48" t="n">
+        <v>40.4592116947352</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="K48" t="n">
+        <v>33.06673518664976</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Store 48</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>50.517409</v>
+      </c>
+      <c r="C49" t="n">
+        <v>30.616649</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.636788689034375</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13</v>
+      </c>
+      <c r="F49" t="n">
+        <v>163</v>
+      </c>
+      <c r="G49" t="n">
+        <v>406.4681105236265</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.4936693897155</v>
+      </c>
+      <c r="I49" t="n">
+        <v>18.90623953518588</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12.53846153846154</v>
+      </c>
+      <c r="K49" t="n">
+        <v>31.26677773258665</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Store 49</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>50.508721</v>
+      </c>
+      <c r="C50" t="n">
+        <v>30.607418</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.574147064150723</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12</v>
+      </c>
+      <c r="F50" t="n">
+        <v>166</v>
+      </c>
+      <c r="G50" t="n">
+        <v>400.3663215064456</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.411845310279793</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16.58652156047341</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13.83333333333333</v>
+      </c>
+      <c r="K50" t="n">
+        <v>33.36386012553714</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Store 50</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>50.533542</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30.600594</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.313656346618032</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>96</v>
+      </c>
+      <c r="G51" t="n">
+        <v>240.2751247569752</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.502865882885158</v>
+      </c>
+      <c r="I51" t="n">
+        <v>44.49385455754018</v>
+      </c>
+      <c r="J51" t="n">
+        <v>12</v>
+      </c>
+      <c r="K51" t="n">
+        <v>30.0343905946219</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Store 51</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>50.522658</v>
+      </c>
+      <c r="C52" t="n">
+        <v>30.451686</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.368472838440362</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>104</v>
+      </c>
+      <c r="G52" t="n">
+        <v>240.4599572477528</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.312114973536085</v>
+      </c>
+      <c r="I52" t="n">
+        <v>54.46254141508503</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11.55555555555556</v>
+      </c>
+      <c r="K52" t="n">
+        <v>26.71777302752809</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Store 52</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>50.397688</v>
+      </c>
+      <c r="C53" t="n">
+        <v>30.638267</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.60788374435699</v>
+      </c>
+      <c r="E53" t="n">
+        <v>20</v>
+      </c>
+      <c r="F53" t="n">
+        <v>164</v>
+      </c>
+      <c r="G53" t="n">
+        <v>420.3689052950979</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.563225032287182</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20.86239739677138</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K53" t="n">
+        <v>21.0184452647549</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Store 53</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>50.519076</v>
+      </c>
+      <c r="C54" t="n">
+        <v>30.501747</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.156246190397344</v>
+      </c>
+      <c r="E54" t="n">
+        <v>20</v>
+      </c>
+      <c r="F54" t="n">
+        <v>222</v>
+      </c>
+      <c r="G54" t="n">
+        <v>520.7683660602818</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.34580345072199</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.764576593957809</v>
+      </c>
+      <c r="J54" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>26.03841830301409</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Store 54</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>50.512704</v>
+      </c>
+      <c r="C55" t="n">
+        <v>30.496875</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.595606434865603</v>
+      </c>
+      <c r="E55" t="n">
+        <v>18</v>
+      </c>
+      <c r="F55" t="n">
+        <v>210</v>
+      </c>
+      <c r="G55" t="n">
+        <v>498.1348163509213</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.372070554052006</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15.64561794580339</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="K55" t="n">
+        <v>27.67415646394007</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Store 55</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>50.509463</v>
+      </c>
+      <c r="C56" t="n">
+        <v>30.497693</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.654465333520146</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14</v>
+      </c>
+      <c r="F56" t="n">
+        <v>204</v>
+      </c>
+      <c r="G56" t="n">
+        <v>485.5528668098984</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.380161111813228</v>
+      </c>
+      <c r="I56" t="n">
+        <v>13.48039422874664</v>
+      </c>
+      <c r="J56" t="n">
+        <v>14.57142857142857</v>
+      </c>
+      <c r="K56" t="n">
+        <v>34.68234762927846</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Store 56</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>50.519204</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30.4985</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.554852434372055</v>
+      </c>
+      <c r="E57" t="n">
+        <v>19</v>
+      </c>
+      <c r="F57" t="n">
+        <v>216</v>
+      </c>
+      <c r="G57" t="n">
+        <v>504.7865341695843</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.336974695229557</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8.916899844350713</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.36842105263158</v>
+      </c>
+      <c r="K57" t="n">
+        <v>26.56771232471496</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Store 57</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>50.471374</v>
+      </c>
+      <c r="C58" t="n">
+        <v>30.502307</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.345569756056392</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>197</v>
+      </c>
+      <c r="G58" t="n">
+        <v>374.5771002985318</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.901406600500162</v>
+      </c>
+      <c r="I58" t="n">
+        <v>68.37217798446696</v>
+      </c>
+      <c r="J58" t="n">
+        <v>24.625</v>
+      </c>
+      <c r="K58" t="n">
+        <v>46.82213753731648</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Store 58</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>50.427943</v>
+      </c>
+      <c r="C59" t="n">
+        <v>30.593448</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.52608069180203</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>91</v>
+      </c>
+      <c r="G59" t="n">
+        <v>219.6320330300736</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.413538824506303</v>
+      </c>
+      <c r="I59" t="n">
+        <v>49.42563095838155</v>
+      </c>
+      <c r="J59" t="n">
+        <v>13</v>
+      </c>
+      <c r="K59" t="n">
+        <v>31.37600471858194</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Store 59</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>50.456693</v>
+      </c>
+      <c r="C60" t="n">
+        <v>30.38344</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.506234359612126</v>
+      </c>
+      <c r="E60" t="n">
+        <v>14</v>
+      </c>
+      <c r="F60" t="n">
+        <v>146</v>
+      </c>
+      <c r="G60" t="n">
+        <v>306.2112963277661</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.09733764608059</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29.52643480015655</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10.42857142857143</v>
+      </c>
+      <c r="K60" t="n">
+        <v>21.8722354519833</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Store 60</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>50.451306</v>
+      </c>
+      <c r="C61" t="n">
+        <v>30.467988</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.725012725341157</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>148</v>
+      </c>
+      <c r="G61" t="n">
+        <v>324.3886766021966</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.191815382447274</v>
+      </c>
+      <c r="I61" t="n">
+        <v>33.24867456031346</v>
+      </c>
+      <c r="J61" t="n">
+        <v>24.66666666666667</v>
+      </c>
+      <c r="K61" t="n">
+        <v>54.06477943369944</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Store 61</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>50.453158</v>
+      </c>
+      <c r="C62" t="n">
+        <v>30.447263</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.56925683332861</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>164</v>
+      </c>
+      <c r="G62" t="n">
+        <v>349.1962311002978</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.129245311587182</v>
+      </c>
+      <c r="I62" t="n">
+        <v>43.88677927071285</v>
+      </c>
+      <c r="J62" t="n">
+        <v>18.22222222222222</v>
+      </c>
+      <c r="K62" t="n">
+        <v>38.79958123336642</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Store 62</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>50.459056</v>
+      </c>
+      <c r="C63" t="n">
+        <v>30.39885</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.666237095895804</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>91</v>
+      </c>
+      <c r="G63" t="n">
+        <v>189.8302706813349</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.08604693056412</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25.35894892648097</v>
+      </c>
+      <c r="J63" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>37.96605413626698</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Store 63</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>50.484534</v>
+      </c>
+      <c r="C64" t="n">
+        <v>30.595457</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.619302075875608</v>
+      </c>
+      <c r="E64" t="n">
+        <v>15</v>
+      </c>
+      <c r="F64" t="n">
+        <v>246</v>
+      </c>
+      <c r="G64" t="n">
+        <v>519.9686073590494</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.113693525849794</v>
+      </c>
+      <c r="I64" t="n">
+        <v>21.63051343770663</v>
+      </c>
+      <c r="J64" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>34.66457382393663</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Store 64</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>50.519427</v>
+      </c>
+      <c r="C65" t="n">
+        <v>30.465297</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.550472957106563</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>107</v>
+      </c>
+      <c r="G65" t="n">
+        <v>257.4530044146678</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.406102844996895</v>
+      </c>
+      <c r="I65" t="n">
+        <v>45.59998462481707</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11.88888888888889</v>
+      </c>
+      <c r="K65" t="n">
+        <v>28.60588937940754</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Store 65</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>50.525035</v>
+      </c>
+      <c r="C66" t="n">
+        <v>30.50362</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.36078268987328</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13</v>
+      </c>
+      <c r="F66" t="n">
+        <v>149</v>
+      </c>
+      <c r="G66" t="n">
+        <v>349.1583342684829</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.343344525291831</v>
+      </c>
+      <c r="I66" t="n">
+        <v>43.96688865145475</v>
+      </c>
+      <c r="J66" t="n">
+        <v>11.46153846153846</v>
+      </c>
+      <c r="K66" t="n">
+        <v>26.85833340526792</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Store 66</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>50.472025</v>
+      </c>
+      <c r="C67" t="n">
+        <v>30.337587</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.540954808926133</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>77</v>
+      </c>
+      <c r="G67" t="n">
+        <v>181.5373504556015</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.357627927994825</v>
+      </c>
+      <c r="I67" t="n">
+        <v>22.8946659017236</v>
+      </c>
+      <c r="J67" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>36.3074700911203</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Store 67</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>50.510505</v>
+      </c>
+      <c r="C68" t="n">
+        <v>30.419726</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.567144045195657</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12</v>
+      </c>
+      <c r="F68" t="n">
+        <v>165</v>
+      </c>
+      <c r="G68" t="n">
+        <v>386.6514089372187</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2.34334187234678</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11.58237973702295</v>
+      </c>
+      <c r="J68" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="K68" t="n">
+        <v>32.22095074476822</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Store 68</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>50.504688</v>
+      </c>
+      <c r="C69" t="n">
+        <v>30.428548</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.508798965403905</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12</v>
+      </c>
+      <c r="F69" t="n">
+        <v>181</v>
+      </c>
+      <c r="G69" t="n">
+        <v>424.5397737115442</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.34552361166599</v>
+      </c>
+      <c r="I69" t="n">
+        <v>26.47791819557922</v>
+      </c>
+      <c r="J69" t="n">
+        <v>15.08333333333333</v>
+      </c>
+      <c r="K69" t="n">
+        <v>35.37831447596201</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Store 69</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>50.504707</v>
+      </c>
+      <c r="C70" t="n">
+        <v>30.437289</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.668199484198662</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12</v>
+      </c>
+      <c r="F70" t="n">
+        <v>231</v>
+      </c>
+      <c r="G70" t="n">
+        <v>524.4773749827443</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.270464826765127</v>
+      </c>
+      <c r="I70" t="n">
+        <v>16.03241705911163</v>
+      </c>
+      <c r="J70" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="K70" t="n">
+        <v>43.70644791522869</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Store 70</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>50.486647</v>
+      </c>
+      <c r="C71" t="n">
+        <v>30.585121</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.406880670049125</v>
+      </c>
+      <c r="E71" t="n">
+        <v>13</v>
+      </c>
+      <c r="F71" t="n">
+        <v>146</v>
+      </c>
+      <c r="G71" t="n">
+        <v>319.0687248468229</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.185402224978239</v>
+      </c>
+      <c r="I71" t="n">
+        <v>48.43251759222436</v>
+      </c>
+      <c r="J71" t="n">
+        <v>11.23076923076923</v>
+      </c>
+      <c r="K71" t="n">
+        <v>24.54374806514022</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Store 71</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>50.491599</v>
+      </c>
+      <c r="C72" t="n">
+        <v>30.5833</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.249687427805302</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>127</v>
+      </c>
+      <c r="G72" t="n">
+        <v>296.816982777304</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.337141596671685</v>
+      </c>
+      <c r="I72" t="n">
+        <v>30.84207043987126</v>
+      </c>
+      <c r="J72" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K72" t="n">
+        <v>29.6816982777304</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Store 72</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>50.412018</v>
+      </c>
+      <c r="C73" t="n">
+        <v>30.644346</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.533772058384718</v>
+      </c>
+      <c r="E73" t="n">
+        <v>18</v>
+      </c>
+      <c r="F73" t="n">
+        <v>178</v>
+      </c>
+      <c r="G73" t="n">
+        <v>454.2009516978043</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.551690739875305</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21.38100603984419</v>
+      </c>
+      <c r="J73" t="n">
+        <v>9.888888888888889</v>
+      </c>
+      <c r="K73" t="n">
+        <v>25.23338620543358</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Store 73</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>50.439748</v>
+      </c>
+      <c r="C74" t="n">
+        <v>30.592387</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.395151591504542</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>105</v>
+      </c>
+      <c r="G74" t="n">
+        <v>254.4902577907213</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.423716740864012</v>
+      </c>
+      <c r="I74" t="n">
+        <v>51.38814439257686</v>
+      </c>
+      <c r="J74" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>25.44902577907213</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Store 74</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>50.462439</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30.519044</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.531478917042255</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6</v>
+      </c>
+      <c r="F75" t="n">
+        <v>258</v>
+      </c>
+      <c r="G75" t="n">
+        <v>470.3546500676437</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.823080039021875</v>
+      </c>
+      <c r="I75" t="n">
+        <v>29.14897159611558</v>
+      </c>
+      <c r="J75" t="n">
+        <v>43</v>
+      </c>
+      <c r="K75" t="n">
+        <v>78.39244167794061</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Store 75</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>50.456052</v>
+      </c>
+      <c r="C76" t="n">
+        <v>30.497252</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.505149978319906</v>
+      </c>
+      <c r="E76" t="n">
+        <v>14</v>
+      </c>
+      <c r="F76" t="n">
+        <v>466</v>
+      </c>
+      <c r="G76" t="n">
+        <v>911.2585886578073</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.955490533600445</v>
+      </c>
+      <c r="I76" t="n">
+        <v>77.1712802908301</v>
+      </c>
+      <c r="J76" t="n">
+        <v>33.28571428571428</v>
+      </c>
+      <c r="K76" t="n">
+        <v>65.08989918984338</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Store 76</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>50.496642</v>
+      </c>
+      <c r="C77" t="n">
+        <v>30.4626</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.145507171409663</v>
+      </c>
+      <c r="E77" t="n">
+        <v>6</v>
+      </c>
+      <c r="F77" t="n">
+        <v>88</v>
+      </c>
+      <c r="G77" t="n">
+        <v>187.5962095241755</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.131775108229267</v>
+      </c>
+      <c r="I77" t="n">
+        <v>31.96242130338958</v>
+      </c>
+      <c r="J77" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="K77" t="n">
+        <v>31.26603492069592</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Store 77</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>50.438757</v>
+      </c>
+      <c r="C78" t="n">
+        <v>30.523178</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.73870130043471</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>497</v>
+      </c>
+      <c r="G78" t="n">
+        <v>956.1260839987749</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.923794937623289</v>
+      </c>
+      <c r="I78" t="n">
+        <v>66.80146414626904</v>
+      </c>
+      <c r="J78" t="n">
+        <v>55.22222222222222</v>
+      </c>
+      <c r="K78" t="n">
+        <v>106.2362315554194</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Store 78</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>50.400937</v>
+      </c>
+      <c r="C79" t="n">
+        <v>30.631575</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.301247088636211</v>
+      </c>
+      <c r="E79" t="n">
+        <v>15</v>
+      </c>
+      <c r="F79" t="n">
+        <v>176</v>
+      </c>
+      <c r="G79" t="n">
+        <v>456.938700723498</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.596242617747148</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25.01589502157939</v>
+      </c>
+      <c r="J79" t="n">
+        <v>11.73333333333333</v>
+      </c>
+      <c r="K79" t="n">
+        <v>30.4625800482332</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Store 79</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>50.484746</v>
+      </c>
+      <c r="C80" t="n">
+        <v>30.604443</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.352568386179309</v>
+      </c>
+      <c r="E80" t="n">
+        <v>12</v>
+      </c>
+      <c r="F80" t="n">
+        <v>187</v>
+      </c>
+      <c r="G80" t="n">
+        <v>390.2972043246942</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.087150825265744</v>
+      </c>
+      <c r="I80" t="n">
+        <v>52.96451544909149</v>
+      </c>
+      <c r="J80" t="n">
+        <v>15.58333333333333</v>
+      </c>
+      <c r="K80" t="n">
+        <v>32.52476702705786</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Store 80</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>50.340938</v>
+      </c>
+      <c r="C81" t="n">
+        <v>30.550683</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.973127853599699</v>
+      </c>
+      <c r="E81" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.299038105676658</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>50.45</v>
-      </c>
-      <c r="C3" t="n">
-        <v>30.45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30.55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4330127018922193</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>50.51</v>
-      </c>
-      <c r="C5" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="F81" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G81" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K81" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Store 81</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>50.416111</v>
+      </c>
+      <c r="C82" t="n">
+        <v>30.53186</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.298634783124435</v>
+      </c>
+      <c r="E82" t="n">
+        <v>9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>236</v>
+      </c>
+      <c r="G82" t="n">
+        <v>518.4007675736152</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.196613421922098</v>
+      </c>
+      <c r="I82" t="n">
+        <v>34.16603137904315</v>
+      </c>
+      <c r="J82" t="n">
+        <v>26.22222222222222</v>
+      </c>
+      <c r="K82" t="n">
+        <v>57.60008528595725</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Store 82</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>50.421521</v>
+      </c>
+      <c r="C83" t="n">
+        <v>30.649937</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.633670406051444</v>
+      </c>
+      <c r="E83" t="n">
+        <v>17</v>
+      </c>
+      <c r="F83" t="n">
+        <v>206</v>
+      </c>
+      <c r="G83" t="n">
+        <v>446.0688699389378</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.165382863781252</v>
+      </c>
+      <c r="I83" t="n">
+        <v>32.94596065989523</v>
+      </c>
+      <c r="J83" t="n">
+        <v>12.11764705882353</v>
+      </c>
+      <c r="K83" t="n">
+        <v>26.23934529052575</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Store 83</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>50.414165</v>
+      </c>
+      <c r="C84" t="n">
+        <v>30.661806</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.625209525381881</v>
+      </c>
+      <c r="E84" t="n">
+        <v>13</v>
+      </c>
+      <c r="F84" t="n">
+        <v>134</v>
+      </c>
+      <c r="G84" t="n">
+        <v>318.8624782261115</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.379570733030683</v>
+      </c>
+      <c r="I84" t="n">
+        <v>41.14239758654016</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10.30769230769231</v>
+      </c>
+      <c r="K84" t="n">
+        <v>24.52788294047012</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Store 84</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>50.427168</v>
+      </c>
+      <c r="C85" t="n">
+        <v>30.6392</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.102433705681336</v>
+      </c>
+      <c r="E85" t="n">
+        <v>12</v>
+      </c>
+      <c r="F85" t="n">
+        <v>121</v>
+      </c>
+      <c r="G85" t="n">
+        <v>259.1686211626609</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.141889431096371</v>
+      </c>
+      <c r="I85" t="n">
+        <v>43.24610758329411</v>
+      </c>
+      <c r="J85" t="n">
+        <v>10.08333333333333</v>
+      </c>
+      <c r="K85" t="n">
+        <v>21.59738509688841</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Store 85</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>50.427084</v>
+      </c>
+      <c r="C86" t="n">
+        <v>30.459089</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.392872745402079</v>
+      </c>
+      <c r="E86" t="n">
+        <v>25</v>
+      </c>
+      <c r="F86" t="n">
+        <v>319</v>
+      </c>
+      <c r="G86" t="n">
+        <v>626.3805303326773</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.96357533019648</v>
+      </c>
+      <c r="I86" t="n">
+        <v>56.22736897789989</v>
+      </c>
+      <c r="J86" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="K86" t="n">
+        <v>25.05522121330709</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Store 86</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>50.432254</v>
+      </c>
+      <c r="C87" t="n">
+        <v>30.455303</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.262925469331832</v>
+      </c>
+      <c r="E87" t="n">
+        <v>28</v>
+      </c>
+      <c r="F87" t="n">
+        <v>344</v>
+      </c>
+      <c r="G87" t="n">
+        <v>678.8681001144789</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.973453779402555</v>
+      </c>
+      <c r="I87" t="n">
+        <v>21.493575071622</v>
+      </c>
+      <c r="J87" t="n">
+        <v>12.28571428571429</v>
+      </c>
+      <c r="K87" t="n">
+        <v>24.24528928980282</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Store 87</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>50.455945</v>
+      </c>
+      <c r="C88" t="n">
+        <v>30.345746</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.242541428298384</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>109</v>
+      </c>
+      <c r="G88" t="n">
+        <v>265.7098300565422</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.437704862904057</v>
+      </c>
+      <c r="I88" t="n">
+        <v>37.47002927126888</v>
+      </c>
+      <c r="J88" t="n">
+        <v>13.625</v>
+      </c>
+      <c r="K88" t="n">
+        <v>33.21372875706778</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Store 88</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>50.456321</v>
+      </c>
+      <c r="C89" t="n">
+        <v>30.593928</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.479143247978613</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11</v>
+      </c>
+      <c r="F89" t="n">
+        <v>101</v>
+      </c>
+      <c r="G89" t="n">
+        <v>254.4456910878118</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.519264268196156</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25.3464306937338</v>
+      </c>
+      <c r="J89" t="n">
+        <v>9.181818181818182</v>
+      </c>
+      <c r="K89" t="n">
+        <v>23.13142646252834</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Store 89</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>50.453254</v>
+      </c>
+      <c r="C90" t="n">
+        <v>30.598383</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.23578087032756</v>
+      </c>
+      <c r="E90" t="n">
+        <v>12</v>
+      </c>
+      <c r="F90" t="n">
+        <v>115</v>
+      </c>
+      <c r="G90" t="n">
+        <v>281.8965883355874</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.45127468117902</v>
+      </c>
+      <c r="I90" t="n">
+        <v>35.1789447856132</v>
+      </c>
+      <c r="J90" t="n">
+        <v>9.583333333333334</v>
+      </c>
+      <c r="K90" t="n">
+        <v>23.49138236129895</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Store 90</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>50.472699</v>
+      </c>
+      <c r="C91" t="n">
+        <v>30.406233</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.236537261488694</v>
+      </c>
+      <c r="E91" t="n">
+        <v>11</v>
+      </c>
+      <c r="F91" t="n">
+        <v>194</v>
+      </c>
+      <c r="G91" t="n">
+        <v>385.6169859166007</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.987716422250519</v>
+      </c>
+      <c r="I91" t="n">
+        <v>50.11863975608551</v>
+      </c>
+      <c r="J91" t="n">
+        <v>17.63636363636364</v>
+      </c>
+      <c r="K91" t="n">
+        <v>35.05608962878188</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Store 91</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>50.411725</v>
+      </c>
+      <c r="C92" t="n">
+        <v>30.412683</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.419625360887743</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>63</v>
+      </c>
+      <c r="G92" t="n">
+        <v>145.9908148979512</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.317314522189702</v>
+      </c>
+      <c r="I92" t="n">
+        <v>37.91314536168233</v>
+      </c>
+      <c r="J92" t="n">
+        <v>9</v>
+      </c>
+      <c r="K92" t="n">
+        <v>20.85583069970732</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Store 92</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>50.47131</v>
+      </c>
+      <c r="C93" t="n">
+        <v>30.517505</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.485153349903652</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" t="n">
+        <v>241</v>
+      </c>
+      <c r="G93" t="n">
+        <v>444.8911269587631</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.846021273687814</v>
+      </c>
+      <c r="I93" t="n">
+        <v>73.81619838264645</v>
+      </c>
+      <c r="J93" t="n">
+        <v>40.16666666666666</v>
+      </c>
+      <c r="K93" t="n">
+        <v>74.14852115979384</v>
       </c>
     </row>
   </sheetData>
